--- a/Resource/excel/常量-全局常量.xlsx
+++ b/Resource/excel/常量-全局常量.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>#constant</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>signinresettime</t>
+  </si>
+  <si>
+    <t>聊天的时间间隔(单位:毫秒)</t>
+  </si>
+  <si>
+    <t>chatintervaltime</t>
   </si>
 </sst>
 </file>
@@ -197,6 +203,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,29 +268,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,17 +315,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,94 +337,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,25 +397,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +517,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,139 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,30 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -653,8 +635,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,26 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,148 +708,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,7 +1360,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1506,10 +1512,16 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>2000</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="10"/>
     </row>

--- a/Resource/excel/常量-全局常量.xlsx
+++ b/Resource/excel/常量-全局常量.xlsx
@@ -744,7 +744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D6:D7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,7 +904,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="10"/>

--- a/Resource/excel/常量-全局常量.xlsx
+++ b/Resource/excel/常量-全局常量.xlsx
@@ -159,22 +159,23 @@
     <t>disconnettime</t>
   </si>
   <si>
+    <t>playernamelength</t>
+  </si>
+  <si>
+    <t>签到时间</t>
+  </si>
+  <si>
+    <t>signinresettime</t>
+  </si>
+  <si>
+    <t>聊天的时间间隔(单位:毫秒)</t>
+  </si>
+  <si>
+    <t>chatintervaltime</t>
+  </si>
+  <si>
     <t>玩家名字的最大长度</t>
-  </si>
-  <si>
-    <t>playernamelength</t>
-  </si>
-  <si>
-    <t>签到时间</t>
-  </si>
-  <si>
-    <t>signinresettime</t>
-  </si>
-  <si>
-    <t>聊天的时间间隔(单位:毫秒)</t>
-  </si>
-  <si>
-    <t>chatintervaltime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -744,7 +745,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,24 +870,24 @@
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="10">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16">
@@ -897,10 +898,10 @@
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16">
